--- a/Code/Results/Cases/Case_0_156/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_156/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.708399513538657</v>
+        <v>2.291541108688404</v>
       </c>
       <c r="D2">
-        <v>6.025298232799836</v>
+        <v>4.050898842812302</v>
       </c>
       <c r="E2">
-        <v>32.57005375363716</v>
+        <v>16.70908072926622</v>
       </c>
       <c r="F2">
-        <v>51.73956695713128</v>
+        <v>31.60504126112297</v>
       </c>
       <c r="G2">
-        <v>83.46591234989596</v>
+        <v>46.55409832425983</v>
       </c>
       <c r="H2">
-        <v>20.76362466059754</v>
+        <v>15.40832056857079</v>
       </c>
       <c r="I2">
-        <v>38.55936327828425</v>
+        <v>24.58747617932367</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -456,25 +456,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.526309198661781</v>
+        <v>2.242653789023561</v>
       </c>
       <c r="D3">
-        <v>5.566261177705508</v>
+        <v>3.966652200631125</v>
       </c>
       <c r="E3">
-        <v>29.90488631590555</v>
+        <v>15.73539356624578</v>
       </c>
       <c r="F3">
-        <v>47.6949068017852</v>
+        <v>30.31348046772983</v>
       </c>
       <c r="G3">
-        <v>76.9169601175261</v>
+        <v>44.04312956734805</v>
       </c>
       <c r="H3">
-        <v>19.13902625709756</v>
+        <v>15.06860057062732</v>
       </c>
       <c r="I3">
-        <v>35.53346707919878</v>
+        <v>23.73397333187817</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -491,25 +491,25 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.414158202865668</v>
+        <v>2.211807746960202</v>
       </c>
       <c r="D4">
-        <v>5.278112018481998</v>
+        <v>3.915703165446659</v>
       </c>
       <c r="E4">
-        <v>28.23342964653708</v>
+        <v>15.11294793995386</v>
       </c>
       <c r="F4">
-        <v>45.13649231531522</v>
+        <v>29.50471783009858</v>
       </c>
       <c r="G4">
-        <v>72.77508838800163</v>
+        <v>42.44369329197145</v>
       </c>
       <c r="H4">
-        <v>18.11226915194831</v>
+        <v>14.86204866385766</v>
       </c>
       <c r="I4">
-        <v>33.61782403910083</v>
+        <v>23.20411622102341</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.368231468437464</v>
+        <v>2.199035036526852</v>
       </c>
       <c r="D5">
-        <v>5.15883323978392</v>
+        <v>3.895165308247904</v>
       </c>
       <c r="E5">
-        <v>27.54166174782475</v>
+        <v>14.85337459359294</v>
       </c>
       <c r="F5">
-        <v>44.07333849915979</v>
+        <v>29.17174623420886</v>
       </c>
       <c r="G5">
-        <v>71.05398626917659</v>
+        <v>41.77824074587329</v>
       </c>
       <c r="H5">
-        <v>17.68580518518959</v>
+        <v>14.77851342090205</v>
       </c>
       <c r="I5">
-        <v>32.82131581447331</v>
+        <v>22.9871107110186</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -561,25 +561,25 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.360588430312526</v>
+        <v>2.196902070549547</v>
       </c>
       <c r="D6">
-        <v>5.138908054316462</v>
+        <v>3.891769386997976</v>
       </c>
       <c r="E6">
-        <v>27.4261046612826</v>
+        <v>14.80992375570739</v>
       </c>
       <c r="F6">
-        <v>43.89551565721239</v>
+        <v>29.11626917020148</v>
       </c>
       <c r="G6">
-        <v>70.76611617207095</v>
+        <v>41.66694468322579</v>
       </c>
       <c r="H6">
-        <v>17.61448713326532</v>
+        <v>14.76468452929529</v>
       </c>
       <c r="I6">
-        <v>32.68806288312148</v>
+        <v>22.95102309836028</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -596,25 +596,25 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2.413539884411204</v>
+        <v>2.211636302568302</v>
       </c>
       <c r="D7">
-        <v>5.276511217711443</v>
+        <v>3.915425239108084</v>
       </c>
       <c r="E7">
-        <v>28.22414545941749</v>
+        <v>15.10947083176047</v>
       </c>
       <c r="F7">
-        <v>45.12223960922717</v>
+        <v>29.50024021401687</v>
       </c>
       <c r="G7">
-        <v>72.75201506235952</v>
+        <v>42.43477289657117</v>
       </c>
       <c r="H7">
-        <v>18.10655113117011</v>
+        <v>14.860919337383</v>
       </c>
       <c r="I7">
-        <v>33.60714791057396</v>
+        <v>23.20119348434832</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -631,25 +631,25 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>2.645593030986527</v>
+        <v>2.274860173089021</v>
       </c>
       <c r="D8">
-        <v>5.868147821955945</v>
+        <v>4.021706081111173</v>
       </c>
       <c r="E8">
-        <v>31.65716042284986</v>
+        <v>16.3786007659989</v>
       </c>
       <c r="F8">
-        <v>50.35937526134472</v>
+        <v>31.16329760214415</v>
       </c>
       <c r="G8">
-        <v>81.23097960466016</v>
+        <v>45.7007482679815</v>
       </c>
       <c r="H8">
-        <v>20.20906508888897</v>
+        <v>15.29083622336217</v>
       </c>
       <c r="I8">
-        <v>37.527119934597</v>
+        <v>24.29460900471282</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -666,25 +666,25 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>3.106408089656793</v>
+        <v>2.392031015748078</v>
       </c>
       <c r="D9">
-        <v>6.994386651727369</v>
+        <v>4.235053467491398</v>
       </c>
       <c r="E9">
-        <v>38.21818287826297</v>
+        <v>18.82411019586371</v>
       </c>
       <c r="F9">
-        <v>60.13588021167448</v>
+        <v>34.27788795284235</v>
       </c>
       <c r="G9">
-        <v>97.06841998306048</v>
+        <v>51.61769986820897</v>
       </c>
       <c r="H9">
-        <v>24.14132605558778</v>
+        <v>16.1447125850414</v>
       </c>
       <c r="I9">
-        <v>44.83413734886923</v>
+        <v>26.37774005021574</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -701,25 +701,25 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>3.465871725429351</v>
+        <v>2.473682401355524</v>
       </c>
       <c r="D10">
-        <v>7.832429631932715</v>
+        <v>4.39316584716242</v>
       </c>
       <c r="E10">
-        <v>43.14415493072156</v>
+        <v>20.5358144269539</v>
       </c>
       <c r="F10">
-        <v>67.21342030966071</v>
+        <v>36.45161286952369</v>
       </c>
       <c r="G10">
-        <v>108.5472635897982</v>
+        <v>55.6358714946854</v>
       </c>
       <c r="H10">
-        <v>26.99416237229473</v>
+        <v>16.77170479421704</v>
       </c>
       <c r="I10">
-        <v>50.11977645715052</v>
+        <v>27.85301576224261</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -736,25 +736,25 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>3.640469274137491</v>
+        <v>2.509813349873192</v>
       </c>
       <c r="D11">
-        <v>8.227253143895572</v>
+        <v>4.465060646647224</v>
       </c>
       <c r="E11">
-        <v>45.48494815187675</v>
+        <v>21.2729129993351</v>
       </c>
       <c r="F11">
-        <v>70.4792331936933</v>
+        <v>37.4113678453699</v>
       </c>
       <c r="G11">
-        <v>113.8495095226717</v>
+        <v>57.38764912677036</v>
       </c>
       <c r="H11">
-        <v>28.31248439697945</v>
+        <v>17.05548680334745</v>
       </c>
       <c r="I11">
-        <v>52.55843849364199</v>
+        <v>28.50897267896951</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>3.709076165167696</v>
+        <v>2.523345721851703</v>
       </c>
       <c r="D12">
-        <v>8.380230148940287</v>
+        <v>4.492254776971453</v>
       </c>
       <c r="E12">
-        <v>46.39624763137999</v>
+        <v>21.54610482686297</v>
       </c>
       <c r="F12">
-        <v>71.73160862891986</v>
+        <v>37.77032924410645</v>
       </c>
       <c r="G12">
-        <v>115.8839298630009</v>
+        <v>58.03976241435722</v>
       </c>
       <c r="H12">
-        <v>28.81838876180785</v>
+        <v>17.16263380323391</v>
       </c>
       <c r="I12">
-        <v>53.49363918311376</v>
+        <v>28.75496003551681</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -806,25 +806,25 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>3.694170363035775</v>
+        <v>2.520437998087115</v>
       </c>
       <c r="D13">
-        <v>8.347097543122677</v>
+        <v>4.486399811963452</v>
       </c>
       <c r="E13">
-        <v>46.19864941684961</v>
+        <v>21.48753115452642</v>
       </c>
       <c r="F13">
-        <v>71.4609997576767</v>
+        <v>37.69322384252395</v>
       </c>
       <c r="G13">
-        <v>115.4442836579426</v>
+        <v>57.89982250672394</v>
       </c>
       <c r="H13">
-        <v>28.70905747126179</v>
+        <v>17.1395734416739</v>
       </c>
       <c r="I13">
-        <v>53.29156207928612</v>
+        <v>28.70209278663566</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -841,25 +841,25 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>3.64605691865453</v>
+        <v>2.510929686689979</v>
       </c>
       <c r="D14">
-        <v>8.239757918483805</v>
+        <v>4.467298688734582</v>
       </c>
       <c r="E14">
-        <v>45.55934304609413</v>
+        <v>21.29550726848794</v>
       </c>
       <c r="F14">
-        <v>70.58188584619542</v>
+        <v>37.44099107847996</v>
       </c>
       <c r="G14">
-        <v>114.0162390895401</v>
+        <v>57.44152579165144</v>
       </c>
       <c r="H14">
-        <v>28.35394393240803</v>
+        <v>17.06430876126331</v>
       </c>
       <c r="I14">
-        <v>52.63509260803472</v>
+        <v>28.52925971419302</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -876,25 +876,25 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>3.616944628718899</v>
+        <v>2.505085972457952</v>
       </c>
       <c r="D15">
-        <v>8.174517722228073</v>
+        <v>4.455593920829376</v>
       </c>
       <c r="E15">
-        <v>45.17139245949465</v>
+        <v>21.17711600208218</v>
       </c>
       <c r="F15">
-        <v>70.04578359465002</v>
+        <v>37.28590017163898</v>
       </c>
       <c r="G15">
-        <v>113.1455428022733</v>
+        <v>57.15933325238636</v>
       </c>
       <c r="H15">
-        <v>28.13743673687219</v>
+        <v>17.01816284569774</v>
       </c>
       <c r="I15">
-        <v>52.23476871725516</v>
+        <v>28.42307434073403</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -911,25 +911,25 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>3.454751650562663</v>
+        <v>2.471300429075148</v>
       </c>
       <c r="D16">
-        <v>7.807014650070489</v>
+        <v>4.388464436848404</v>
       </c>
       <c r="E16">
-        <v>42.99397941753794</v>
+        <v>20.4868108082355</v>
       </c>
       <c r="F16">
-        <v>67.00160799197819</v>
+        <v>36.38827920270002</v>
       </c>
       <c r="G16">
-        <v>108.2035076779897</v>
+        <v>55.51982985930513</v>
       </c>
       <c r="H16">
-        <v>26.90870353695426</v>
+        <v>16.75312061138621</v>
       </c>
       <c r="I16">
-        <v>49.96161003189569</v>
+        <v>27.80982219642663</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>3.358605752316022</v>
+        <v>2.450311739149869</v>
       </c>
       <c r="D17">
-        <v>7.585924484815997</v>
+        <v>4.34725545249696</v>
       </c>
       <c r="E17">
-        <v>41.68986829844982</v>
+        <v>20.05271765595117</v>
       </c>
       <c r="F17">
-        <v>65.15124734871523</v>
+        <v>35.82994522078585</v>
       </c>
       <c r="G17">
-        <v>105.2011453888251</v>
+        <v>54.49431812167064</v>
       </c>
       <c r="H17">
-        <v>26.16236732979833</v>
+        <v>16.59007803468758</v>
       </c>
       <c r="I17">
-        <v>48.57986418677665</v>
+        <v>27.42955806999045</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -981,25 +981,25 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>3.304276457525942</v>
+        <v>2.438144496188168</v>
       </c>
       <c r="D18">
-        <v>7.45991998506461</v>
+        <v>4.323551681054695</v>
       </c>
       <c r="E18">
-        <v>40.94835250130508</v>
+        <v>19.79912380347962</v>
       </c>
       <c r="F18">
-        <v>64.09061287088434</v>
+        <v>35.50608353982162</v>
       </c>
       <c r="G18">
-        <v>103.4806689348047</v>
+        <v>53.89732073470162</v>
       </c>
       <c r="H18">
-        <v>25.73473785786912</v>
+        <v>16.4961707843975</v>
       </c>
       <c r="I18">
-        <v>47.78780839584797</v>
+        <v>27.2094258459215</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1016,25 +1016,25 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>3.286027285105712</v>
+        <v>2.434008671566437</v>
       </c>
       <c r="D19">
-        <v>7.417420550841111</v>
+        <v>4.315526567921992</v>
       </c>
       <c r="E19">
-        <v>40.69851430417691</v>
+        <v>19.71258750246558</v>
       </c>
       <c r="F19">
-        <v>63.73190929530528</v>
+        <v>35.39597160121749</v>
       </c>
       <c r="G19">
-        <v>102.8988851583115</v>
+        <v>53.69396992151734</v>
       </c>
       <c r="H19">
-        <v>25.59014277711328</v>
+        <v>16.46435656607966</v>
       </c>
       <c r="I19">
-        <v>47.51992997163137</v>
+        <v>27.13465741008434</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>3.368734918410645</v>
+        <v>2.452555894226017</v>
       </c>
       <c r="D20">
-        <v>7.609330928443522</v>
+        <v>4.351642565151199</v>
       </c>
       <c r="E20">
-        <v>41.82774476484942</v>
+        <v>20.09933246648831</v>
       </c>
       <c r="F20">
-        <v>65.34779077476671</v>
+        <v>35.8896648920848</v>
       </c>
       <c r="G20">
-        <v>105.5200005710791</v>
+        <v>54.60422800683266</v>
       </c>
       <c r="H20">
-        <v>26.24162397007532</v>
+        <v>16.60744839901974</v>
       </c>
       <c r="I20">
-        <v>48.7266348637404</v>
+        <v>27.4701859713386</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1086,25 +1086,25 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>3.660111984954981</v>
+        <v>2.513726599247989</v>
       </c>
       <c r="D21">
-        <v>8.271176411504968</v>
+        <v>4.472910192488109</v>
       </c>
       <c r="E21">
-        <v>45.74633675107916</v>
+        <v>21.35206995216969</v>
       </c>
       <c r="F21">
-        <v>70.83958441079344</v>
+        <v>37.51520159805698</v>
       </c>
       <c r="G21">
-        <v>114.4348149041331</v>
+        <v>57.5764459807808</v>
       </c>
       <c r="H21">
-        <v>28.45802961719278</v>
+        <v>17.08642520133473</v>
       </c>
       <c r="I21">
-        <v>52.82752521020068</v>
+        <v>28.58009206386699</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1121,25 +1121,25 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>3.865873600035914</v>
+        <v>2.552831431934527</v>
       </c>
       <c r="D22">
-        <v>8.725269166305081</v>
+        <v>4.557067552216621</v>
       </c>
       <c r="E22">
-        <v>48.46201065673959</v>
+        <v>22.13625475371157</v>
       </c>
       <c r="F22">
-        <v>74.52800396215281</v>
+        <v>38.55138096152358</v>
       </c>
       <c r="G22">
-        <v>120.4290313638902</v>
+        <v>59.4533090955028</v>
       </c>
       <c r="H22">
-        <v>29.94876753831027</v>
+        <v>17.39758237128478</v>
       </c>
       <c r="I22">
-        <v>55.58195683076816</v>
+        <v>29.29134882595779</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1156,25 +1156,25 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>3.754219212574375</v>
+        <v>2.53204161746814</v>
       </c>
       <c r="D23">
-        <v>8.480222700401384</v>
+        <v>4.50980220076796</v>
       </c>
       <c r="E23">
-        <v>46.99337207370461</v>
+        <v>21.72086697686771</v>
       </c>
       <c r="F23">
-        <v>72.54611748821014</v>
+        <v>38.00083668319093</v>
       </c>
       <c r="G23">
-        <v>117.2074180892216</v>
+        <v>58.45768323017272</v>
       </c>
       <c r="H23">
-        <v>29.14752489680503</v>
+        <v>17.23171805887504</v>
       </c>
       <c r="I23">
-        <v>54.1018828858077</v>
+        <v>28.9130997674547</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1191,25 +1191,25 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>3.36415263573996</v>
+        <v>2.451541624646552</v>
       </c>
       <c r="D24">
-        <v>7.598745541868852</v>
+        <v>4.349659187433445</v>
       </c>
       <c r="E24">
-        <v>41.7653858748443</v>
+        <v>20.07827046014651</v>
       </c>
       <c r="F24">
-        <v>65.25892425940636</v>
+        <v>35.86267453916482</v>
       </c>
       <c r="G24">
-        <v>105.3758296587157</v>
+        <v>54.55456082653496</v>
       </c>
       <c r="H24">
-        <v>26.20578778405047</v>
+        <v>16.5995957844673</v>
       </c>
       <c r="I24">
-        <v>48.66027305459449</v>
+        <v>27.45182279300328</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1226,25 +1226,25 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>2.979691243541662</v>
+        <v>2.361092962591351</v>
       </c>
       <c r="D25">
-        <v>6.690698693342339</v>
+        <v>4.176981437835554</v>
       </c>
       <c r="E25">
-        <v>36.44391869575751</v>
+        <v>18.15660052169957</v>
       </c>
       <c r="F25">
-        <v>57.5272240425452</v>
+        <v>33.45381830685572</v>
       </c>
       <c r="G25">
-        <v>92.84081974826461</v>
+        <v>50.07289128336318</v>
       </c>
       <c r="H25">
-        <v>23.09115263086775</v>
+        <v>15.9132921051738</v>
       </c>
       <c r="I25">
-        <v>42.88532319533847</v>
+        <v>25.82270765140384</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_156/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_156/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.291541108688404</v>
+        <v>2.70839951353856</v>
       </c>
       <c r="D2">
-        <v>4.050898842812302</v>
+        <v>6.025298232799795</v>
       </c>
       <c r="E2">
-        <v>16.70908072926622</v>
+        <v>32.57005375363721</v>
       </c>
       <c r="F2">
-        <v>31.60504126112297</v>
+        <v>51.73956695713133</v>
       </c>
       <c r="G2">
-        <v>46.55409832425983</v>
+        <v>83.46591234989602</v>
       </c>
       <c r="H2">
-        <v>15.40832056857079</v>
+        <v>20.76362466059755</v>
       </c>
       <c r="I2">
-        <v>24.58747617932367</v>
+        <v>38.5593632782843</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -456,25 +456,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.242653789023561</v>
+        <v>2.526309198661663</v>
       </c>
       <c r="D3">
-        <v>3.966652200631125</v>
+        <v>5.566261177705374</v>
       </c>
       <c r="E3">
-        <v>15.73539356624578</v>
+        <v>29.90488631590555</v>
       </c>
       <c r="F3">
-        <v>30.31348046772983</v>
+        <v>47.69490680178521</v>
       </c>
       <c r="G3">
-        <v>44.04312956734805</v>
+        <v>76.91696011752607</v>
       </c>
       <c r="H3">
-        <v>15.06860057062732</v>
+        <v>19.13902625709755</v>
       </c>
       <c r="I3">
-        <v>23.73397333187817</v>
+        <v>35.53346707919876</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -491,25 +491,25 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.211807746960202</v>
+        <v>2.41415820286552</v>
       </c>
       <c r="D4">
-        <v>3.915703165446659</v>
+        <v>5.278112018481931</v>
       </c>
       <c r="E4">
-        <v>15.11294793995386</v>
+        <v>28.23342964653703</v>
       </c>
       <c r="F4">
-        <v>29.50471783009858</v>
+        <v>45.13649231531518</v>
       </c>
       <c r="G4">
-        <v>42.44369329197145</v>
+        <v>72.77508838800158</v>
       </c>
       <c r="H4">
-        <v>14.86204866385766</v>
+        <v>18.11226915194828</v>
       </c>
       <c r="I4">
-        <v>23.20411622102341</v>
+        <v>33.61782403910083</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.199035036526852</v>
+        <v>2.368231468437493</v>
       </c>
       <c r="D5">
-        <v>3.895165308247904</v>
+        <v>5.158833239783949</v>
       </c>
       <c r="E5">
-        <v>14.85337459359294</v>
+        <v>27.54166174782466</v>
       </c>
       <c r="F5">
-        <v>29.17174623420886</v>
+        <v>44.07333849915995</v>
       </c>
       <c r="G5">
-        <v>41.77824074587329</v>
+        <v>71.05398626917696</v>
       </c>
       <c r="H5">
-        <v>14.77851342090205</v>
+        <v>17.68580518518962</v>
       </c>
       <c r="I5">
-        <v>22.9871107110186</v>
+        <v>32.82131581447343</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -561,25 +561,25 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.196902070549547</v>
+        <v>2.360588430312428</v>
       </c>
       <c r="D6">
-        <v>3.891769386997976</v>
+        <v>5.138908054316341</v>
       </c>
       <c r="E6">
-        <v>14.80992375570739</v>
+        <v>27.42610466128251</v>
       </c>
       <c r="F6">
-        <v>29.11626917020148</v>
+        <v>43.8955156572123</v>
       </c>
       <c r="G6">
-        <v>41.66694468322579</v>
+        <v>70.76611617207081</v>
       </c>
       <c r="H6">
-        <v>14.76468452929529</v>
+        <v>17.61448713326527</v>
       </c>
       <c r="I6">
-        <v>22.95102309836028</v>
+        <v>32.68806288312143</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -596,25 +596,25 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2.211636302568302</v>
+        <v>2.413539884411283</v>
       </c>
       <c r="D7">
-        <v>3.915425239108084</v>
+        <v>5.276511217711284</v>
       </c>
       <c r="E7">
-        <v>15.10947083176047</v>
+        <v>28.22414545941754</v>
       </c>
       <c r="F7">
-        <v>29.50024021401687</v>
+        <v>45.12223960922715</v>
       </c>
       <c r="G7">
-        <v>42.43477289657117</v>
+        <v>72.75201506235946</v>
       </c>
       <c r="H7">
-        <v>14.860919337383</v>
+        <v>18.10655113117008</v>
       </c>
       <c r="I7">
-        <v>23.20119348434832</v>
+        <v>33.60714791057396</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -631,25 +631,25 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>2.274860173089021</v>
+        <v>2.645593030986625</v>
       </c>
       <c r="D8">
-        <v>4.021706081111173</v>
+        <v>5.868147821955957</v>
       </c>
       <c r="E8">
-        <v>16.3786007659989</v>
+        <v>31.65716042284983</v>
       </c>
       <c r="F8">
-        <v>31.16329760214415</v>
+        <v>50.35937526134463</v>
       </c>
       <c r="G8">
-        <v>45.7007482679815</v>
+        <v>81.23097960466006</v>
       </c>
       <c r="H8">
-        <v>15.29083622336217</v>
+        <v>20.20906508888895</v>
       </c>
       <c r="I8">
-        <v>24.29460900471282</v>
+        <v>37.52711993459693</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -666,25 +666,25 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>2.392031015748078</v>
+        <v>3.106408089656903</v>
       </c>
       <c r="D9">
-        <v>4.235053467491398</v>
+        <v>6.994386651727254</v>
       </c>
       <c r="E9">
-        <v>18.82411019586371</v>
+        <v>38.21818287826294</v>
       </c>
       <c r="F9">
-        <v>34.27788795284235</v>
+        <v>60.13588021167428</v>
       </c>
       <c r="G9">
-        <v>51.61769986820897</v>
+        <v>97.0684199830601</v>
       </c>
       <c r="H9">
-        <v>16.1447125850414</v>
+        <v>24.14132605558771</v>
       </c>
       <c r="I9">
-        <v>26.37774005021574</v>
+        <v>44.83413734886906</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -701,25 +701,25 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>2.473682401355524</v>
+        <v>3.465871725429092</v>
       </c>
       <c r="D10">
-        <v>4.39316584716242</v>
+        <v>7.832429631932665</v>
       </c>
       <c r="E10">
-        <v>20.5358144269539</v>
+        <v>43.14415493072143</v>
       </c>
       <c r="F10">
-        <v>36.45161286952369</v>
+        <v>67.21342030966055</v>
       </c>
       <c r="G10">
-        <v>55.6358714946854</v>
+        <v>108.547263589798</v>
       </c>
       <c r="H10">
-        <v>16.77170479421704</v>
+        <v>26.99416237229468</v>
       </c>
       <c r="I10">
-        <v>27.85301576224261</v>
+        <v>50.11977645715046</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -736,25 +736,25 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2.509813349873192</v>
+        <v>3.640469274137303</v>
       </c>
       <c r="D11">
-        <v>4.465060646647224</v>
+        <v>8.227253143895771</v>
       </c>
       <c r="E11">
-        <v>21.2729129993351</v>
+        <v>45.48494815187672</v>
       </c>
       <c r="F11">
-        <v>37.4113678453699</v>
+        <v>70.47923319369347</v>
       </c>
       <c r="G11">
-        <v>57.38764912677036</v>
+        <v>113.849509522672</v>
       </c>
       <c r="H11">
-        <v>17.05548680334745</v>
+        <v>28.31248439697952</v>
       </c>
       <c r="I11">
-        <v>28.50897267896951</v>
+        <v>52.55843849364216</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>2.523345721851703</v>
+        <v>3.709076165167809</v>
       </c>
       <c r="D12">
-        <v>4.492254776971453</v>
+        <v>8.380230148940168</v>
       </c>
       <c r="E12">
-        <v>21.54610482686297</v>
+        <v>46.39624763137991</v>
       </c>
       <c r="F12">
-        <v>37.77032924410645</v>
+        <v>71.73160862891984</v>
       </c>
       <c r="G12">
-        <v>58.03976241435722</v>
+        <v>115.8839298630008</v>
       </c>
       <c r="H12">
-        <v>17.16263380323391</v>
+        <v>28.81838876180782</v>
       </c>
       <c r="I12">
-        <v>28.75496003551681</v>
+        <v>53.49363918311371</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -806,25 +806,25 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>2.520437998087115</v>
+        <v>3.694170363035783</v>
       </c>
       <c r="D13">
-        <v>4.486399811963452</v>
+        <v>8.347097543122617</v>
       </c>
       <c r="E13">
-        <v>21.48753115452642</v>
+        <v>46.19864941684973</v>
       </c>
       <c r="F13">
-        <v>37.69322384252395</v>
+        <v>71.46099975767653</v>
       </c>
       <c r="G13">
-        <v>57.89982250672394</v>
+        <v>115.4442836579422</v>
       </c>
       <c r="H13">
-        <v>17.1395734416739</v>
+        <v>28.70905747126172</v>
       </c>
       <c r="I13">
-        <v>28.70209278663566</v>
+        <v>53.29156207928595</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -841,25 +841,25 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>2.510929686689979</v>
+        <v>3.646056918654512</v>
       </c>
       <c r="D14">
-        <v>4.467298688734582</v>
+        <v>8.239757918483878</v>
       </c>
       <c r="E14">
-        <v>21.29550726848794</v>
+        <v>45.55934304609413</v>
       </c>
       <c r="F14">
-        <v>37.44099107847996</v>
+        <v>70.58188584619545</v>
       </c>
       <c r="G14">
-        <v>57.44152579165144</v>
+        <v>114.0162390895401</v>
       </c>
       <c r="H14">
-        <v>17.06430876126331</v>
+        <v>28.35394393240805</v>
       </c>
       <c r="I14">
-        <v>28.52925971419302</v>
+        <v>52.63509260803474</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -876,25 +876,25 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>2.505085972457952</v>
+        <v>3.616944628718898</v>
       </c>
       <c r="D15">
-        <v>4.455593920829376</v>
+        <v>8.174517722227892</v>
       </c>
       <c r="E15">
-        <v>21.17711600208218</v>
+        <v>45.17139245949444</v>
       </c>
       <c r="F15">
-        <v>37.28590017163898</v>
+        <v>70.04578359464968</v>
       </c>
       <c r="G15">
-        <v>57.15933325238636</v>
+        <v>113.1455428022727</v>
       </c>
       <c r="H15">
-        <v>17.01816284569774</v>
+        <v>28.13743673687207</v>
       </c>
       <c r="I15">
-        <v>28.42307434073403</v>
+        <v>52.23476871725491</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -911,25 +911,25 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>2.471300429075148</v>
+        <v>3.454751650562774</v>
       </c>
       <c r="D16">
-        <v>4.388464436848404</v>
+        <v>7.807014650070437</v>
       </c>
       <c r="E16">
-        <v>20.4868108082355</v>
+        <v>42.9939794175378</v>
       </c>
       <c r="F16">
-        <v>36.38827920270002</v>
+        <v>67.00160799197819</v>
       </c>
       <c r="G16">
-        <v>55.51982985930513</v>
+        <v>108.2035076779898</v>
       </c>
       <c r="H16">
-        <v>16.75312061138621</v>
+        <v>26.90870353695426</v>
       </c>
       <c r="I16">
-        <v>27.80982219642663</v>
+        <v>49.96161003189567</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>2.450311739149869</v>
+        <v>3.358605752316012</v>
       </c>
       <c r="D17">
-        <v>4.34725545249696</v>
+        <v>7.585924484815952</v>
       </c>
       <c r="E17">
-        <v>20.05271765595117</v>
+        <v>41.68986829844984</v>
       </c>
       <c r="F17">
-        <v>35.82994522078585</v>
+        <v>65.15124734871523</v>
       </c>
       <c r="G17">
-        <v>54.49431812167064</v>
+        <v>105.2011453888251</v>
       </c>
       <c r="H17">
-        <v>16.59007803468758</v>
+        <v>26.16236732979831</v>
       </c>
       <c r="I17">
-        <v>27.42955806999045</v>
+        <v>48.5798641867766</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -981,25 +981,25 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>2.438144496188168</v>
+        <v>3.304276457525922</v>
       </c>
       <c r="D18">
-        <v>4.323551681054695</v>
+        <v>7.459919985064673</v>
       </c>
       <c r="E18">
-        <v>19.79912380347962</v>
+        <v>40.94835250130502</v>
       </c>
       <c r="F18">
-        <v>35.50608353982162</v>
+        <v>64.09061287088431</v>
       </c>
       <c r="G18">
-        <v>53.89732073470162</v>
+        <v>103.4806689348046</v>
       </c>
       <c r="H18">
-        <v>16.4961707843975</v>
+        <v>25.73473785786912</v>
       </c>
       <c r="I18">
-        <v>27.2094258459215</v>
+        <v>47.78780839584797</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1016,25 +1016,25 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>2.434008671566437</v>
+        <v>3.286027285105942</v>
       </c>
       <c r="D19">
-        <v>4.315526567921992</v>
+        <v>7.417420550841099</v>
       </c>
       <c r="E19">
-        <v>19.71258750246558</v>
+        <v>40.69851430417682</v>
       </c>
       <c r="F19">
-        <v>35.39597160121749</v>
+        <v>63.7319092953054</v>
       </c>
       <c r="G19">
-        <v>53.69396992151734</v>
+        <v>102.8988851583117</v>
       </c>
       <c r="H19">
-        <v>16.46435656607966</v>
+        <v>25.59014277711334</v>
       </c>
       <c r="I19">
-        <v>27.13465741008434</v>
+        <v>47.51992997163142</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>2.452555894226017</v>
+        <v>3.368734918410516</v>
       </c>
       <c r="D20">
-        <v>4.351642565151199</v>
+        <v>7.60933092844351</v>
       </c>
       <c r="E20">
-        <v>20.09933246648831</v>
+        <v>41.82774476484937</v>
       </c>
       <c r="F20">
-        <v>35.8896648920848</v>
+        <v>65.34779077476639</v>
       </c>
       <c r="G20">
-        <v>54.60422800683266</v>
+        <v>105.5200005710786</v>
       </c>
       <c r="H20">
-        <v>16.60744839901974</v>
+        <v>26.24162397007523</v>
       </c>
       <c r="I20">
-        <v>27.4701859713386</v>
+        <v>48.72663486374019</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1086,25 +1086,25 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>2.513726599247989</v>
+        <v>3.660111984954663</v>
       </c>
       <c r="D21">
-        <v>4.472910192488109</v>
+        <v>8.271176411504779</v>
       </c>
       <c r="E21">
-        <v>21.35206995216969</v>
+        <v>45.74633675107915</v>
       </c>
       <c r="F21">
-        <v>37.51520159805698</v>
+        <v>70.83958441079299</v>
       </c>
       <c r="G21">
-        <v>57.5764459807808</v>
+        <v>114.4348149041323</v>
       </c>
       <c r="H21">
-        <v>17.08642520133473</v>
+        <v>28.45802961719264</v>
       </c>
       <c r="I21">
-        <v>28.58009206386699</v>
+        <v>52.82752521020031</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1121,25 +1121,25 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>2.552831431934527</v>
+        <v>3.865873600035914</v>
       </c>
       <c r="D22">
-        <v>4.557067552216621</v>
+        <v>8.725269166305184</v>
       </c>
       <c r="E22">
-        <v>22.13625475371157</v>
+        <v>48.46201065673964</v>
       </c>
       <c r="F22">
-        <v>38.55138096152358</v>
+        <v>74.52800396215281</v>
       </c>
       <c r="G22">
-        <v>59.4533090955028</v>
+        <v>120.4290313638903</v>
       </c>
       <c r="H22">
-        <v>17.39758237128478</v>
+        <v>29.94876753831027</v>
       </c>
       <c r="I22">
-        <v>29.29134882595779</v>
+        <v>55.58195683076818</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1156,25 +1156,25 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>2.53204161746814</v>
+        <v>3.754219212574317</v>
       </c>
       <c r="D23">
-        <v>4.50980220076796</v>
+        <v>8.480222700401368</v>
       </c>
       <c r="E23">
-        <v>21.72086697686771</v>
+        <v>46.99337207370476</v>
       </c>
       <c r="F23">
-        <v>38.00083668319093</v>
+        <v>72.54611748821048</v>
       </c>
       <c r="G23">
-        <v>58.45768323017272</v>
+        <v>117.2074180892221</v>
       </c>
       <c r="H23">
-        <v>17.23171805887504</v>
+        <v>29.14752489680517</v>
       </c>
       <c r="I23">
-        <v>28.9130997674547</v>
+        <v>54.10188288580792</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1191,25 +1191,25 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>2.451541624646552</v>
+        <v>3.364152635739829</v>
       </c>
       <c r="D24">
-        <v>4.349659187433445</v>
+        <v>7.59874554186896</v>
       </c>
       <c r="E24">
-        <v>20.07827046014651</v>
+        <v>41.76538587484441</v>
       </c>
       <c r="F24">
-        <v>35.86267453916482</v>
+        <v>65.25892425940651</v>
       </c>
       <c r="G24">
-        <v>54.55456082653496</v>
+        <v>105.3758296587161</v>
       </c>
       <c r="H24">
-        <v>16.5995957844673</v>
+        <v>26.20578778405053</v>
       </c>
       <c r="I24">
-        <v>27.45182279300328</v>
+        <v>48.66027305459468</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1226,25 +1226,25 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>2.361092962591351</v>
+        <v>2.979691243541454</v>
       </c>
       <c r="D25">
-        <v>4.176981437835554</v>
+        <v>6.690698693342161</v>
       </c>
       <c r="E25">
-        <v>18.15660052169957</v>
+        <v>36.4439186957574</v>
       </c>
       <c r="F25">
-        <v>33.45381830685572</v>
+        <v>57.52722404254499</v>
       </c>
       <c r="G25">
-        <v>50.07289128336318</v>
+        <v>92.84081974826418</v>
       </c>
       <c r="H25">
-        <v>15.9132921051738</v>
+        <v>23.09115263086763</v>
       </c>
       <c r="I25">
-        <v>25.82270765140384</v>
+        <v>42.88532319533828</v>
       </c>
       <c r="J25">
         <v>0</v>
